--- a/notebooks/dufferin_sheppard.xlsx
+++ b/notebooks/dufferin_sheppard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldang\Developer\bungol\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/powerbook/Developer/bungol/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7688F19-623E-433A-A009-E5E664BA56AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224697E4-35D9-7743-A8B3-4CC8B65F75C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -862,7 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -871,10 +871,24 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -905,20 +919,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -933,8 +933,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF695048-DBF5-476F-8EBB-FD03A99EA63A}" name="Table1" displayName="Table1" ref="A1:K94" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="A1:K94" xr:uid="{D0E7ACF1-D818-4C04-B032-7FE901BE6FAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF695048-DBF5-476F-8EBB-FD03A99EA63A}" name="Table1" displayName="Table1" ref="A1:K94" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:K94" xr:uid="{D0E7ACF1-D818-4C04-B032-7FE901BE6FAF}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="lessThan" val="800"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D43338F1-90BB-44B2-B01B-DF863E534D7D}" name="PropertyType"/>
     <tableColumn id="2" xr3:uid="{CF6E9969-1213-4E9B-858E-B9C90B57622A}" name="Unit"/>
@@ -1275,26 +1281,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1609,14 +1615,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1644,7 +1650,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -1817,7 +1823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -3738,7 +3744,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4018,7 +4024,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4158,7 +4164,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -4403,7 +4409,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
